--- a/data/trans_dic/P19F$noche-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.573526219512202</v>
+        <v>0.5791024702707137</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6577182198295399</v>
+        <v>0.6586759992349432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6370263468468004</v>
+        <v>0.6433400303103541</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7250824118938144</v>
+        <v>0.7280075746575279</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7981802835525775</v>
+        <v>0.8023057917005384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7380666664399955</v>
+        <v>0.7450210019973971</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4788067283764911</v>
+        <v>0.4848118550343725</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5896823000730279</v>
+        <v>0.5928631267846846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.54971879640606</v>
+        <v>0.5521477795161109</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6061020020498562</v>
+        <v>0.6095622745858291</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7120420310066983</v>
+        <v>0.7128561897577804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6392367741834378</v>
+        <v>0.6429276980302394</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7239373820027597</v>
+        <v>0.7203545956719711</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7992838768432494</v>
+        <v>0.7950543965093106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7724629645282447</v>
+        <v>0.7745363382539251</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8537574631935021</v>
+        <v>0.8496403658033065</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9357496081675618</v>
+        <v>0.927603872000099</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8670376621416657</v>
+        <v>0.8694132988974875</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7136214625323011</v>
+        <v>0.7118053959164249</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7471092898824426</v>
+        <v>0.7402947699074869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.74881948526163</v>
+        <v>0.7487593717858984</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8300197799052704</v>
+        <v>0.8299162727925626</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.858281525053267</v>
+        <v>0.8577642891030712</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8281944787895122</v>
+        <v>0.8282534487480082</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8924296243686753</v>
+        <v>0.8940350386868674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9045030005126715</v>
+        <v>0.8965385822422242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9138429181183801</v>
+        <v>0.9141543445380421</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9731189618387867</v>
+        <v>0.9730618928457042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9753230046344015</v>
+        <v>0.976371248785495</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9663084891020552</v>
+        <v>0.9682813823911351</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7179803221120997</v>
+        <v>0.7244524276447198</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7356293532386164</v>
+        <v>0.7408571527918589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7474854657020472</v>
+        <v>0.7458502543307219</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8493865929571023</v>
+        <v>0.8481286521038631</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.853876482891661</v>
+        <v>0.8596970159514079</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8367232747031097</v>
+        <v>0.83949880317404</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7289212745672384</v>
+        <v>0.7245067068801307</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7334115481983615</v>
+        <v>0.727770550821912</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.746023240113784</v>
+        <v>0.7432324488595794</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.81524602930728</v>
+        <v>0.81482541368501</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8260344749960576</v>
+        <v>0.8199987318834344</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8072918428625329</v>
+        <v>0.8054465351491377</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9206913588512677</v>
+        <v>0.9184602834821494</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8612116760211349</v>
+        <v>0.8636515144258533</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8979738629117838</v>
+        <v>0.9008251414285338</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9678387437722261</v>
+        <v>0.9703442759450195</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9310341048494842</v>
+        <v>0.9299627492063349</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9431184879565357</v>
+        <v>0.9421065884658204</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7571018500452884</v>
+        <v>0.7575228244853339</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.785652177391016</v>
+        <v>0.7862228595760796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7781268887045814</v>
+        <v>0.7775968563697757</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.795964182678795</v>
+        <v>0.7972921554714684</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8250918324150266</v>
+        <v>0.8252281387589043</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.806500545682925</v>
+        <v>0.8048436187965965</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>102805</v>
+        <v>103805</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>106470</v>
+        <v>106625</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>217308</v>
+        <v>219462</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129972</v>
+        <v>130496</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>129208</v>
+        <v>129876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>251776</v>
+        <v>254148</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>121286</v>
+        <v>122807</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>139692</v>
+        <v>140446</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>269474</v>
+        <v>270664</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>153531</v>
+        <v>154408</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>168678</v>
+        <v>168871</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>313356</v>
+        <v>315165</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>99674</v>
+        <v>99181</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78036</v>
+        <v>77624</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>181773</v>
+        <v>182261</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>117548</v>
+        <v>116981</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>91360</v>
+        <v>90565</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>204028</v>
+        <v>204587</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>149110</v>
+        <v>148730</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>169028</v>
+        <v>167487</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>325879</v>
+        <v>325853</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>173431</v>
+        <v>173409</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>194180</v>
+        <v>194063</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>360422</v>
+        <v>360448</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>129836</v>
+        <v>130070</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>133755</v>
+        <v>132577</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>268087</v>
+        <v>268178</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>141575</v>
+        <v>141567</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>144228</v>
+        <v>144383</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>283478</v>
+        <v>284057</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>105625</v>
+        <v>106577</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>130907</v>
+        <v>131837</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>242982</v>
+        <v>242451</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>124957</v>
+        <v>124772</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>151949</v>
+        <v>152985</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>271990</v>
+        <v>272893</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>277826</v>
+        <v>276144</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>264213</v>
+        <v>262181</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>553101</v>
+        <v>551032</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>310729</v>
+        <v>310568</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>297581</v>
+        <v>295406</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>598525</v>
+        <v>597157</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>300009</v>
+        <v>299282</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>287481</v>
+        <v>288296</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>592359</v>
+        <v>594240</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>315372</v>
+        <v>316189</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>310788</v>
+        <v>310431</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>622139</v>
+        <v>621472</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1346725</v>
+        <v>1347474</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1369029</v>
+        <v>1370023</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2740041</v>
+        <v>2738174</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1415853</v>
+        <v>1418215</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1437754</v>
+        <v>1437991</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2839954</v>
+        <v>2834119</v>
       </c>
     </row>
     <row r="40">
